--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13620" windowHeight="11970"/>
+    <workbookView windowWidth="14775" windowHeight="4410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>.*CTTAAATTA(?P&lt;ss&gt;.{10})CTGCCAGCAT.*GCATTCTAGA(?P&lt;bc&gt;.{20})GCGGCCGC.*</t>
+    <t>.*CTTAAATTA(?P&lt;ss&gt;.{10})CTGCCAGCAT.*</t>
   </si>
   <si>
     <t>GTGCTCACATTCCTTAAATTANNNNGYNNNNCTGCCAGCATGCAGGTGGATGCACATGATGACATAATCACCTGCATTCTAGANNNNNNNNNNNNNNNNNNNNGCGGCCGCGCGCCACTTAAGATCGGAAGAGCGGTTCAGCAGGAATGC</t>
@@ -279,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -321,32 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,76 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +346,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +374,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -474,25 +474,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,43 +576,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,85 +624,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,21 +665,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,6 +688,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +742,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,173 +765,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2552,8 +2552,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14775" windowHeight="4410" activeTab="2"/>
+    <workbookView windowWidth="14775" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1326,7 +1326,7 @@
         <v>306772</v>
       </c>
       <c r="B3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1346,7 +1346,7 @@
         <v>306773</v>
       </c>
       <c r="B4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
@@ -1687,7 +1687,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
@@ -1713,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>38</v>
@@ -1739,7 +1739,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>38</v>
@@ -1791,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
@@ -1817,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>38</v>
@@ -1843,7 +1843,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>38</v>
@@ -1869,7 +1869,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>38</v>
@@ -1895,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>53</v>
@@ -1921,7 +1921,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>53</v>
@@ -1947,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>53</v>
@@ -1973,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>53</v>
@@ -1999,7 +1999,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>53</v>
@@ -2025,7 +2025,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>53</v>
@@ -2051,7 +2051,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
@@ -2077,7 +2077,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>53</v>
@@ -2103,7 +2103,7 @@
         <v>51</v>
       </c>
       <c r="D25" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>53</v>
@@ -2552,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14775" windowHeight="4410"/>
+    <workbookView windowWidth="14775" windowHeight="4410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>smn2_select_ssbc_read2</t>
   </si>
   <si>
-    <t>ss, bc</t>
+    <t>ss</t>
   </si>
   <si>
     <t>smn2_select_ssbc_lib2</t>
@@ -1266,7 +1266,7 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14775" windowHeight="4410" activeTab="1"/>
+    <workbookView windowWidth="14775" windowHeight="4410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
     <t>GTGCTCACATTCCTTAAATTANNNNGYNNNNCTGCCAGCATGCAGGTGGATGCACATGATGACATAATCACCTGCATTCTAGANNNNNNNNNNNNNNNNNNNNGCGGCCGCGCGCCACTTAAGATCGGAAGAGCGGTTCAGCAGGAATGC</t>
   </si>
   <si>
-    <t>.*GCGGCCGC(?P&lt;bc_rc&gt;.{20})TCTAGAATGC.*ATGCTGGCAG(?P&lt;ss_rc&gt;.{10})TAATTTAAG.*</t>
+    <t>.*GCGGCCGC(?P&lt;bc_rc&gt;.{20})TCTAGAATGC.*</t>
   </si>
   <si>
     <t>GCGGCCGCNNNNNNNNNNNNNNNNNNNNTCTAGAATGCAGGTGATTATGTCATCATGTGCATCCACCTGCATGCTGGCAGNNNNRCNNNNTAATTTAAGGAATGTGAGCACGCGCCACTTAAGATCGGAAGAGCGTCGTGTAGGGAAAGA</t>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2552,8 +2552,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14775" windowHeight="4410" activeTab="2"/>
+    <workbookView windowWidth="14775" windowHeight="4410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>smn2_select_ssbc_read2</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>ss, bc</t>
   </si>
   <si>
     <t>smn2_select_ssbc_lib2</t>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1511,7 +1511,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
@@ -1537,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
@@ -1563,7 +1563,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
@@ -1589,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -1641,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -2552,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14775" windowHeight="4410" activeTab="1"/>
+    <workbookView windowWidth="28740" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -321,6 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -329,25 +337,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,8 +359,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -382,24 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,8 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,9 +414,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,9 +435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,14 +444,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,31 +480,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,127 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,6 +665,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,32 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -729,24 +712,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,153 +730,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1306,7 +1306,7 @@
         <v>306771</v>
       </c>
       <c r="B2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1326,7 +1326,7 @@
         <v>306772</v>
       </c>
       <c r="B3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1346,7 +1346,7 @@
         <v>306773</v>
       </c>
       <c r="B4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1505,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
@@ -1531,13 +1531,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
@@ -1557,13 +1557,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
@@ -1583,13 +1583,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -1609,13 +1609,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -1635,13 +1635,13 @@
         <v>36</v>
       </c>
       <c r="D7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -1661,13 +1661,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -1687,13 +1687,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>39</v>
@@ -1713,13 +1713,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -1739,13 +1739,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>39</v>
@@ -1765,13 +1765,13 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>39</v>
@@ -1791,13 +1791,13 @@
         <v>36</v>
       </c>
       <c r="D13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>39</v>
@@ -1817,13 +1817,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>39</v>
@@ -1843,13 +1843,13 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>39</v>
@@ -1869,13 +1869,13 @@
         <v>51</v>
       </c>
       <c r="D16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>39</v>
@@ -1895,13 +1895,13 @@
         <v>23</v>
       </c>
       <c r="D17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>54</v>
@@ -1921,13 +1921,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>54</v>
@@ -1947,13 +1947,13 @@
         <v>30</v>
       </c>
       <c r="D19" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>54</v>
@@ -1973,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>54</v>
@@ -1999,13 +1999,13 @@
         <v>34</v>
       </c>
       <c r="D21" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>54</v>
@@ -2025,13 +2025,13 @@
         <v>36</v>
       </c>
       <c r="D22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>54</v>
@@ -2051,13 +2051,13 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>54</v>
@@ -2077,13 +2077,13 @@
         <v>49</v>
       </c>
       <c r="D24" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>54</v>
@@ -2103,13 +2103,13 @@
         <v>51</v>
       </c>
       <c r="D25" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>54</v>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28740" windowHeight="12000"/>
+    <workbookView windowWidth="18225" windowHeight="17370"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>LID</t>
   </si>
@@ -256,22 +256,43 @@
     <t>cipher</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_5sslib_ssbc_lib1.txt</t>
+    <t>./cipher/cipher.smn2_select_ssbc_lib1.txt</t>
   </si>
   <si>
     <t>inc</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_lib1_DNA_good.txt</t>
+    <t>./cipher/cipher.smn2_select_inc_lib1.txt</t>
   </si>
   <si>
     <t>tot</t>
   </si>
   <si>
+    <t>./cipher/cipher.smn2_select_tot_lib1.txt</t>
+  </si>
+  <si>
     <t>smn2_select_lib2</t>
   </si>
   <si>
+    <t>./cipher/cipher.smn2_select_ssbc_lib4.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib2.txt</t>
+  </si>
+  <si>
     <t>smn2_select_lib3</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_ssbc_lib6.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib3.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib3.txt</t>
   </si>
 </sst>
 </file>
@@ -329,15 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -367,7 +389,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -375,7 +412,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -390,8 +435,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,51 +485,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -474,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +693,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +732,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,21 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +769,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -741,171 +786,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1450,7 +1471,7 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
@@ -2653,7 +2674,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2704,60 +2725,75 @@
       <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="17370"/>
+    <workbookView windowWidth="18225" windowHeight="7215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -262,13 +262,13 @@
     <t>inc</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_select_inc_lib1.txt</t>
+    <t>./cipher/cipher.smn2_select_inc_lib1_rep1.txt</t>
   </si>
   <si>
     <t>tot</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_select_tot_lib1.txt</t>
+    <t>./cipher/cipher.smn2_select_tot_lib1_rep1.txt</t>
   </si>
   <si>
     <t>smn2_select_lib2</t>
@@ -277,10 +277,10 @@
     <t>./cipher/cipher.smn2_select_ssbc_lib4.txt</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_select_inc_lib2.txt</t>
-  </si>
-  <si>
-    <t>./cipher/cipher.smn2_select_tot_lib2.txt</t>
+    <t>./cipher/cipher.smn2_select_inc_lib2_rep1.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib2_rep1.txt</t>
   </si>
   <si>
     <t>smn2_select_lib3</t>
@@ -289,10 +289,10 @@
     <t>./cipher/cipher.smn2_select_ssbc_lib6.txt</t>
   </si>
   <si>
-    <t>./cipher/cipher.smn2_select_inc_lib3.txt</t>
-  </si>
-  <si>
-    <t>./cipher/cipher.smn2_select_tot_lib3.txt</t>
+    <t>./cipher/cipher.smn2_select_inc_lib3_rep1.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib3_rep1.txt</t>
   </si>
 </sst>
 </file>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -350,6 +350,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -358,24 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,8 +380,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -403,27 +418,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,7 +435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,15 +455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +699,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -709,6 +724,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,23 +766,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,167 +786,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1287,7 +1287,7 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
@@ -2673,7 +2673,7 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="7215" activeTab="3"/>
+    <workbookView windowWidth="19770" windowHeight="17370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>LID</t>
   </si>
@@ -250,7 +250,7 @@
     <t>file</t>
   </si>
   <si>
-    <t>smn2_select_lib1</t>
+    <t>smn2_select_lib1_rep1</t>
   </si>
   <si>
     <t>cipher</t>
@@ -271,6 +271,24 @@
     <t>./cipher/cipher.smn2_select_tot_lib1_rep1.txt</t>
   </si>
   <si>
+    <t>smn2_select_lib1_rep2</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib1_rep2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib1_rep2.txt</t>
+  </si>
+  <si>
+    <t>smn2_select_lib1_rep3</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib1_rep3.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib1_rep3.txt</t>
+  </si>
+  <si>
     <t>smn2_select_lib2</t>
   </si>
   <si>
@@ -283,6 +301,18 @@
     <t>./cipher/cipher.smn2_select_tot_lib2_rep1.txt</t>
   </si>
   <si>
+    <t>./cipher/cipher.smn2_select_inc_lib2_rep2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib2_rep2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib2_rep3.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib2_rep3.txt</t>
+  </si>
+  <si>
     <t>smn2_select_lib3</t>
   </si>
   <si>
@@ -293,6 +323,18 @@
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_tot_lib3_rep1.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib3_rep2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib3_rep2.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_inc_lib3_rep3.txt</t>
+  </si>
+  <si>
+    <t>./cipher/cipher.smn2_select_tot_lib3_rep3.txt</t>
   </si>
 </sst>
 </file>
@@ -2671,15 +2713,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="true"/>
     <col min="2" max="2" width="13.8333333333333" style="1" customWidth="true"/>
     <col min="3" max="3" width="45.1666666666667" style="1" customWidth="true"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -2737,7 +2779,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2748,7 +2790,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2759,74 +2801,260 @@
         <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SMN2_200822.xlsx
+++ b/SMN2_200822.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="110">
   <si>
     <t>LID</t>
   </si>
@@ -289,7 +289,7 @@
     <t>./cipher/cipher.smn2_select_tot_lib1_rep3.txt</t>
   </si>
   <si>
-    <t>smn2_select_lib2</t>
+    <t>smn2_select_lib2_rep1</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_ssbc_lib4.txt</t>
@@ -301,19 +301,25 @@
     <t>./cipher/cipher.smn2_select_tot_lib2_rep1.txt</t>
   </si>
   <si>
+    <t>smn2_select_lib2_rep2</t>
+  </si>
+  <si>
     <t>./cipher/cipher.smn2_select_inc_lib2_rep2.txt</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_tot_lib2_rep2.txt</t>
   </si>
   <si>
+    <t>smn2_select_lib2_rep3</t>
+  </si>
+  <si>
     <t>./cipher/cipher.smn2_select_inc_lib2_rep3.txt</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_tot_lib2_rep3.txt</t>
   </si>
   <si>
-    <t>smn2_select_lib3</t>
+    <t>smn2_select_lib3_rep1</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_ssbc_lib6.txt</t>
@@ -325,10 +331,16 @@
     <t>./cipher/cipher.smn2_select_tot_lib3_rep1.txt</t>
   </si>
   <si>
+    <t>smn2_select_lib3_rep2</t>
+  </si>
+  <si>
     <t>./cipher/cipher.smn2_select_inc_lib3_rep2.txt</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_tot_lib3_rep2.txt</t>
+  </si>
+  <si>
+    <t>smn2_select_lib3_rep3</t>
   </si>
   <si>
     <t>./cipher/cipher.smn2_select_inc_lib3_rep3.txt</t>
@@ -2716,7 +2728,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2872,7 +2884,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>78</v>
@@ -2883,29 +2895,29 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>78</v>
@@ -2916,123 +2928,123 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:1">
